--- a/results_cnn_subnetwork_evaluation/plv_20251002/cnn_validation_SubRCM_plv_origin.xlsx
+++ b/results_cnn_subnetwork_evaluation/plv_20251002/cnn_validation_SubRCM_plv_origin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm_gaussian\results_cnn_subnetwork_evaluation\plv_20251002\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A05D3E-603E-45FC-B63C-20B912526077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5486C913-97B8-4F77-B34A-6C6B486A9546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sr_1.0" sheetId="1" r:id="rId1"/>
@@ -1100,9 +1100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1681,9 +1679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2262,9 +2258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2843,9 +2837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -3424,9 +3416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -4005,9 +3995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
